--- a/tut05/output/0401ME04.xlsx
+++ b/tut05/output/0401ME04.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.836734693877551</v>
+        <v>8.84</v>
       </c>
       <c r="C6" t="n">
-        <v>7.931818181818182</v>
+        <v>7.93</v>
       </c>
       <c r="D6" t="n">
-        <v>8.787234042553191</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>8.693877551020408</v>
+        <v>8.69</v>
       </c>
       <c r="F6" t="n">
-        <v>8.478260869565217</v>
+        <v>8.48</v>
       </c>
       <c r="G6" t="n">
-        <v>8.521739130434783</v>
+        <v>8.52</v>
       </c>
       <c r="H6" t="n">
         <v>9.550000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.836734693877551</v>
+        <v>8.84</v>
       </c>
       <c r="C8" t="n">
-        <v>8.408602150537634</v>
+        <v>8.41</v>
       </c>
       <c r="D8" t="n">
-        <v>8.535714285714286</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.576719576719576</v>
+        <v>8.58</v>
       </c>
       <c r="F8" t="n">
-        <v>8.557446808510639</v>
+        <v>8.56</v>
       </c>
       <c r="G8" t="n">
-        <v>8.551601423487545</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>8.676012461059191</v>
+        <v>8.68</v>
       </c>
       <c r="I8" t="n">
-        <v>8.695290858725762</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
   </sheetData>
